--- a/アプリ画面図.xlsx
+++ b/アプリ画面図.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1487,7 +1485,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>指紋成功</a:t>
+            <a:t>認証成功</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1563,8 +1561,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9848850" y="857250"/>
-          <a:ext cx="1809750" cy="1809749"/>
+          <a:off x="9772650" y="884464"/>
+          <a:ext cx="1793421" cy="1864178"/>
           <a:chOff x="9848850" y="857250"/>
           <a:chExt cx="1809750" cy="1809749"/>
         </a:xfrm>
@@ -1616,7 +1614,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>指紋成功！</a:t>
+              <a:t>指紋認証成功！</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1907,7 +1905,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>指紋失敗</a:t>
+            <a:t>認証失敗</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2041,8 +2039,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11953875" y="4276725"/>
-          <a:ext cx="1809750" cy="1809749"/>
+          <a:off x="11861346" y="4407354"/>
+          <a:ext cx="1793422" cy="1869620"/>
           <a:chOff x="11953875" y="4276725"/>
           <a:chExt cx="1809750" cy="1809749"/>
         </a:xfrm>
@@ -2107,7 +2105,7 @@
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>指紋失敗！</a:t>
+                <a:t>指紋認証失敗！</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3121,8 +3119,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -3133,8 +3131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886700" y="7581900"/>
-          <a:ext cx="990600" cy="361950"/>
+          <a:off x="7826829" y="7821386"/>
+          <a:ext cx="1072242" cy="372835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3173,7 +3171,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>指紋成功</a:t>
+            <a:t>指紋読取成功</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3237,8 +3235,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3249,8 +3247,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7877175" y="8229600"/>
-          <a:ext cx="990600" cy="361950"/>
+          <a:off x="7817304" y="8490857"/>
+          <a:ext cx="1081767" cy="372836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3289,7 +3287,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>指紋失敗</a:t>
+            <a:t>指紋読取失敗</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3363,8 +3361,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9496425" y="6629400"/>
-          <a:ext cx="1809750" cy="2228849"/>
+          <a:off x="9425668" y="6836229"/>
+          <a:ext cx="1793421" cy="2299606"/>
           <a:chOff x="9496425" y="6858000"/>
           <a:chExt cx="1809750" cy="2228849"/>
         </a:xfrm>
@@ -3429,7 +3427,7 @@
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>指紋成功！</a:t>
+                <a:t>指紋登録成功！</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3750,8 +3748,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11134725" y="9782175"/>
-          <a:ext cx="1809750" cy="1809749"/>
+          <a:off x="11047639" y="10092418"/>
+          <a:ext cx="1798865" cy="1864177"/>
           <a:chOff x="11953875" y="4276725"/>
           <a:chExt cx="1809750" cy="1809749"/>
         </a:xfrm>
@@ -4670,8 +4668,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -4686,8 +4684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972050" y="15744825"/>
-          <a:ext cx="1809750" cy="1733550"/>
+          <a:off x="4933950" y="16913679"/>
+          <a:ext cx="1798864" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4767,44 +4765,6 @@
             <a:t>.</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5254,8 +5214,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8562975" y="12525375"/>
-          <a:ext cx="1809750" cy="1809749"/>
+          <a:off x="8497661" y="12922704"/>
+          <a:ext cx="1793421" cy="1864177"/>
           <a:chOff x="11953875" y="4276725"/>
           <a:chExt cx="1809750" cy="1809749"/>
         </a:xfrm>
@@ -5667,6 +5627,1467 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="103" name="グループ化 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11028589" y="13027479"/>
+          <a:ext cx="1798865" cy="1869620"/>
+          <a:chOff x="9848850" y="857250"/>
+          <a:chExt cx="1809750" cy="1809749"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="正方形/長方形 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9848850" y="857250"/>
+            <a:ext cx="1809750" cy="428624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>指紋削除完了</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="正方形/長方形 116"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9848850" y="1285875"/>
+            <a:ext cx="1809750" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>指紋データ名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>を削除しました。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9848850" y="2238375"/>
+            <a:ext cx="1809750" cy="428624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>OK</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>226559</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="図形 119"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="118" idx="2"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="4901634" y="7870711"/>
+          <a:ext cx="5072742" cy="8980034"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -13626"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>204105</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>232680</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>141516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8368391" y="15770680"/>
+          <a:ext cx="2069646" cy="2944586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176891</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>615041</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="正方形/長方形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4939391" y="16246929"/>
+          <a:ext cx="1798864" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指紋データを選択して下さい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>99324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>221797</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>127899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6735536" y="17081038"/>
+          <a:ext cx="1650547" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>269422</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>127899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526597</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89799</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直線コネクタ 133"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7072993" y="17109613"/>
+          <a:ext cx="257175" cy="315686"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31297</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>99324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7092043" y="17425299"/>
+          <a:ext cx="1103540" cy="363311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>データ名タップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>345618</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103411</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>107497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509904" y="15879536"/>
+          <a:ext cx="1798864" cy="325211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指紋編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326568</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>145597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>84361</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8490854" y="18188668"/>
+          <a:ext cx="1798864" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336093</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>121105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>93886</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8500379" y="16925926"/>
+          <a:ext cx="1798864" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>インストールされている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アプリ名表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>341534</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99327</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505820" y="16259176"/>
+          <a:ext cx="1798864" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>起動アプリを選択して下さい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>545643</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>50348</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="カギ線コネクタ 143"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="2"/>
+          <a:endCxn id="200" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="7600948" y="16834760"/>
+          <a:ext cx="12247" cy="3566429"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1866580"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312954</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>341529</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="正方形/長方形 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11879025" y="15797894"/>
+          <a:ext cx="2069647" cy="2925535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455829</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>213622</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="146" name="グループ化 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12021900" y="16246930"/>
+          <a:ext cx="1798865" cy="1869620"/>
+          <a:chOff x="9848850" y="857250"/>
+          <a:chExt cx="1809750" cy="1809749"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="正方形/長方形 146"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9848850" y="857250"/>
+            <a:ext cx="1809750" cy="428624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>指紋編集完了</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9848850" y="1285875"/>
+            <a:ext cx="1809750" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>指紋データ名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>認証時に</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>起動アプリ名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>を起動します。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="正方形/長方形 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9848850" y="2238375"/>
+            <a:ext cx="1809750" cy="428624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>OK</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>31292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312954</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>102055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線矢印コネクタ 152"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="145" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10314213" y="17189899"/>
+          <a:ext cx="1564812" cy="70763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446313</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>69392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336776</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>31292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直線コネクタ 153"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="155" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10651670" y="17227999"/>
+          <a:ext cx="570820" cy="315686"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>465363</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>31292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>208189</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>31292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10670720" y="17543685"/>
+          <a:ext cx="1103540" cy="353786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アプリ名タップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>226559</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>674904</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>73480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="カギ線コネクタ 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="149" idx="2"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3788564" y="8983782"/>
+          <a:ext cx="8292193" cy="9973345"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -13259"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5957,9 +7378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I66" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -5967,30 +7386,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>